--- a/data/trans_camb/P38B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Provincia-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,84; -3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,78; -5,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; -5,79</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,47%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 6,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; -4,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -5,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 4,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; -6,49</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 9,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 14,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 8,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 12,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 8,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 12,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,44%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 11,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,33; 17,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 10,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 15,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 9,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,55; 14,39</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,86; 15,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 14,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 8,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 7,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 10,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 9,88</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 20,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 18,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 9,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 8,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 12,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 11,85</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,01; 1,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 5,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 1,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 1,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; -0,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; 1,81</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 2,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 7,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 1,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 1,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,97; -0,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 2,09</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,59</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,48; -0,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 12,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 4,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 13,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; -0,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,14; 11,85</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,79; -1,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 15,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 4,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,45; 16,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; -0,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,71; 13,82</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,96; -15,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 2,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,71; -15,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 3,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; -15,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 2,96</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,6%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,5; -18,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 3,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; -16,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 4,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,72; -17,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 3,35</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,83</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,14</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,36</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,0; 18,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,92; -11,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,73; 18,14</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,58; -5,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,33; 17,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; -9,42</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,65%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,37%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,25; 26,12</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,96; -15,2</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 23,56</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; -7,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,59; 23,4</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,16; -12,36</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,46</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; -0,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,93</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 0,92</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; -0,07</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,79</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,89; -0,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 1,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 1,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,08</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; -0,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Provincia-trans_camb.xlsx
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-14,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,57</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; -6,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 17,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; -8,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 12,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; -9,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 14,17</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,17%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; -7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,43; 22,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,12; -9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,35; 15,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; -10,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,15; 16,72</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,05</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,45</t>
+          <t>-10,35</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,84; -3,91</t>
+          <t>-18,96; -5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,16</t>
+          <t>-13,66; -5,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -5,79</t>
+          <t>-14,11; -6,44</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-13,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-11,47%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -4,55</t>
+          <t>-21,34; -5,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -5,56</t>
+          <t>-14,62; -5,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -6,49</t>
+          <t>-15,53; -7,25</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>8,85</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 14,28</t>
+          <t>3,35; 14,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,87</t>
+          <t>4,6; 12,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,16</t>
+          <t>5,65; 12,13</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 17,67</t>
+          <t>3,84; 17,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 15,21</t>
+          <t>5,09; 15,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 14,39</t>
+          <t>6,37; 14,34</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,62</t>
+          <t>8,97; 19,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 14,31</t>
+          <t>2,01; 18,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,17</t>
+          <t>2,08; 11,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 7,64</t>
+          <t>-36,26; 9,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,73</t>
+          <t>6,93; 14,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 9,88</t>
+          <t>-21,15; 11,61</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,44; 20,21</t>
+          <t>11,2; 26,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 18,46</t>
+          <t>2,57; 24,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,59</t>
+          <t>2,45; 13,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 8,85</t>
+          <t>-42,43; 11,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,96</t>
+          <t>8,2; 17,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 11,85</t>
+          <t>-25,63; 14,49</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,62</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 5,72</t>
+          <t>-9,65; 5,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 1,05</t>
+          <t>-8,89; 1,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 1,81</t>
+          <t>-6,84; 2,15</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-2,98%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 7,18</t>
+          <t>-11,07; 7,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 1,15</t>
+          <t>-9,54; 1,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 2,09</t>
+          <t>-7,6; 2,49</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>8,49</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,97</t>
+          <t>3,35; 12,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,99</t>
+          <t>4,98; 14,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,85</t>
+          <t>5,01; 11,74</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,1; 15,5</t>
+          <t>3,78; 15,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,45; 16,69</t>
+          <t>5,51; 16,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,71; 13,82</t>
+          <t>5,58; 13,74</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,8</t>
+          <t>-8,54; 1,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,86</t>
+          <t>-2,15; 5,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,96</t>
+          <t>-3,92; 4,27</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,37</t>
+          <t>-9,86; 2,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,27</t>
+          <t>-2,33; 5,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,35</t>
+          <t>-4,39; 4,82</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-16,83</t>
+          <t>-28,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-13,36</t>
+          <t>-20,62</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -11,01</t>
+          <t>-53,75; -11,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -5,8</t>
+          <t>-13,61; -4,93</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-19,65; -9,42</t>
+          <t>-41,25; -9,71</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>-39,02%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>-11,19%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-26,82%</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,96; -15,2</t>
+          <t>-71,02; -15,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -7,27</t>
+          <t>-16,56; -6,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,16; -12,36</t>
+          <t>-53,38; -12,56</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,36</t>
+          <t>-21,67; -0,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,93</t>
+          <t>-7,44; 1,36</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,07</t>
+          <t>-13,05; -0,21</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,49</t>
+          <t>-26,73; -0,65</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,08</t>
+          <t>-8,44; 1,55</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -0,09</t>
+          <t>-15,24; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -6,16</t>
+          <t>-19,89; -5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,62</t>
+          <t>7,86; 17,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,31; -8,3</t>
+          <t>-21,29; -8,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,76</t>
+          <t>5,22; 13,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -9,35</t>
+          <t>-18,41; -9,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,17</t>
+          <t>7,6; 13,79</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -7,89</t>
+          <t>-23,48; -7,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 22,17</t>
+          <t>9,02; 22,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -9,46</t>
+          <t>-23,37; -9,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 15,16</t>
+          <t>5,65; 15,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -10,94</t>
+          <t>-20,82; -10,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 16,72</t>
+          <t>8,65; 16,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,42</t>
+          <t>-2,45; 5,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -5,15</t>
+          <t>-18,76; -5,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,23</t>
+          <t>-1,21; 4,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -5,14</t>
+          <t>-13,18; -5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,3</t>
+          <t>-1,07; 4,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -6,44</t>
+          <t>-14,85; -6,76</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 6,36</t>
+          <t>-2,75; 6,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -5,88</t>
+          <t>-21,36; -6,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,65</t>
+          <t>-1,28; 5,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -5,64</t>
+          <t>-13,95; -5,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,97</t>
+          <t>-1,16; 4,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -7,25</t>
+          <t>-16,27; -7,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,7</t>
+          <t>0,23; 10,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,17</t>
+          <t>3,7; 13,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,58</t>
+          <t>-0,72; 8,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,86</t>
+          <t>4,97; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,04</t>
+          <t>0,95; 7,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,13</t>
+          <t>5,6; 12,19</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 11,98</t>
+          <t>0,31; 12,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 17,46</t>
+          <t>4,46; 17,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,06</t>
+          <t>-0,66; 9,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 15,2</t>
+          <t>5,5; 15,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,49</t>
+          <t>1,08; 9,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 14,34</t>
+          <t>6,29; 14,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 19,57</t>
+          <t>9,0; 20,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,26</t>
+          <t>2,08; 18,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,21</t>
+          <t>1,38; 11,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 9,89</t>
+          <t>-36,67; 10,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,09</t>
+          <t>7,03; 13,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 11,61</t>
+          <t>-21,66; 11,6</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,2; 26,88</t>
+          <t>11,31; 27,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 24,49</t>
+          <t>2,66; 24,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 13,81</t>
+          <t>1,55; 13,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 11,66</t>
+          <t>-43,07; 12,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,2; 17,94</t>
+          <t>8,43; 17,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 14,49</t>
+          <t>-26,24; 14,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 1,75</t>
+          <t>-13,73; 1,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 5,78</t>
+          <t>-10,25; 5,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,67</t>
+          <t>-8,82; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 1,56</t>
+          <t>-8,94; 1,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,29</t>
+          <t>-9,14; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,15</t>
+          <t>-7,09; 2,35</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 2,17</t>
+          <t>-15,96; 2,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 7,25</t>
+          <t>-11,63; 7,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 1,9</t>
+          <t>-9,4; 2,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 1,71</t>
+          <t>-9,71; 1,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -0,37</t>
+          <t>-10,24; 0,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 2,49</t>
+          <t>-8,0; 2,72</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -0,82</t>
+          <t>-13,5; -0,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 12,86</t>
+          <t>3,04; 13,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,0</t>
+          <t>-7,07; 4,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,02</t>
+          <t>4,9; 14,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -0,14</t>
+          <t>-8,56; -0,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,74</t>
+          <t>5,56; 11,95</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -1,06</t>
+          <t>-15,03; -1,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,78; 15,35</t>
+          <t>3,44; 15,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 4,65</t>
+          <t>-7,87; 5,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,51; 16,72</t>
+          <t>5,34; 16,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,18</t>
+          <t>-9,58; -0,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,74</t>
+          <t>6,2; 14,04</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -15,03</t>
+          <t>-24,75; -14,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 1,88</t>
+          <t>-8,99; 1,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -15,26</t>
+          <t>-22,81; -15,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,26</t>
+          <t>-2,3; 5,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -15,79</t>
+          <t>-22,42; -16,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,27</t>
+          <t>-3,83; 4,27</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,5; -18,06</t>
+          <t>-28,5; -17,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 2,12</t>
+          <t>-10,38; 2,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,54; -16,62</t>
+          <t>-24,34; -16,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,77</t>
+          <t>-2,48; 6,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -17,93</t>
+          <t>-25,06; -18,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,82</t>
+          <t>-4,27; 4,91</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>11,0; 18,73</t>
+          <t>11,18; 19,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -11,37</t>
+          <t>-55,47; -11,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,14</t>
+          <t>11,46; 18,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -4,93</t>
+          <t>-13,12; -4,73</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>12,33; 17,51</t>
+          <t>12,32; 17,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-41,25; -9,71</t>
+          <t>-42,28; -9,88</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,25; 26,12</t>
+          <t>14,56; 26,77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-71,02; -15,36</t>
+          <t>-73,49; -14,81</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>14,26; 23,56</t>
+          <t>13,95; 23,57</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -6,27</t>
+          <t>-16,16; -6,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>15,59; 23,4</t>
+          <t>15,5; 23,36</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -12,56</t>
+          <t>-54,32; -12,91</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,46</t>
+          <t>-2,18; 1,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -0,53</t>
+          <t>-23,96; -0,34</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,05</t>
+          <t>-1,93; 1,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,36</t>
+          <t>-6,32; 1,4</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,92</t>
+          <t>-1,54; 0,92</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -0,21</t>
+          <t>-13,92; -0,04</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,79</t>
+          <t>-2,64; 2,01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -0,65</t>
+          <t>-29,39; -0,44</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,21</t>
+          <t>-2,16; 1,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,55</t>
+          <t>-7,13; 1,61</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,08</t>
+          <t>-1,78; 1,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -0,25</t>
+          <t>-16,25; -0,05</t>
         </is>
       </c>
     </row>
